--- a/DijkstraBE_MatlabCode/results.xlsx
+++ b/DijkstraBE_MatlabCode/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="3465" windowWidth="11115" windowHeight="6195"/>
+    <workbookView xWindow="2925" yWindow="3465" windowWidth="11115" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sist33" sheetId="13" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,9 +1860,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1904,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
